--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8386623333333333</v>
+        <v>0.8794496666666666</v>
       </c>
       <c r="N2">
-        <v>2.515987</v>
+        <v>2.638349</v>
       </c>
       <c r="O2">
-        <v>0.3543770938252007</v>
+        <v>0.3488427963707166</v>
       </c>
       <c r="P2">
-        <v>0.3543770938252008</v>
+        <v>0.3488427963707166</v>
       </c>
       <c r="Q2">
-        <v>0.4005563125644445</v>
+        <v>0.4200368867955556</v>
       </c>
       <c r="R2">
-        <v>3.60500681308</v>
+        <v>3.78033198116</v>
       </c>
       <c r="S2">
-        <v>0.3543770938252007</v>
+        <v>0.3488427963707166</v>
       </c>
       <c r="T2">
-        <v>0.3543770938252008</v>
+        <v>0.3488427963707166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>2.134398</v>
       </c>
       <c r="O3">
-        <v>0.3006302339027669</v>
+        <v>0.2822103394539786</v>
       </c>
       <c r="P3">
-        <v>0.3006302339027669</v>
+        <v>0.2822103394539786</v>
       </c>
       <c r="Q3">
         <v>0.3398056478133334</v>
@@ -635,10 +635,10 @@
         <v>3.05825083032</v>
       </c>
       <c r="S3">
-        <v>0.3006302339027669</v>
+        <v>0.2822103394539786</v>
       </c>
       <c r="T3">
-        <v>0.3006302339027669</v>
+        <v>0.2822103394539786</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.65342</v>
+        <v>0.8404543333333333</v>
       </c>
       <c r="N4">
-        <v>1.96026</v>
+        <v>2.521363</v>
       </c>
       <c r="O4">
-        <v>0.2761028741173098</v>
+        <v>0.3333748945214069</v>
       </c>
       <c r="P4">
-        <v>0.2761028741173098</v>
+        <v>0.3333748945214068</v>
       </c>
       <c r="Q4">
-        <v>0.3120821042666667</v>
+        <v>0.4014121956577778</v>
       </c>
       <c r="R4">
-        <v>2.8087389384</v>
+        <v>3.612709760920001</v>
       </c>
       <c r="S4">
-        <v>0.2761028741173098</v>
+        <v>0.3333748945214069</v>
       </c>
       <c r="T4">
-        <v>0.2761028741173098</v>
+        <v>0.3333748945214068</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1630333333333333</v>
+        <v>0.08967866666666667</v>
       </c>
       <c r="N5">
-        <v>0.4891</v>
+        <v>0.269036</v>
       </c>
       <c r="O5">
-        <v>0.06888979815472246</v>
+        <v>0.035571969653898</v>
       </c>
       <c r="P5">
-        <v>0.06888979815472246</v>
+        <v>0.03557196965389799</v>
       </c>
       <c r="Q5">
-        <v>0.07786689377777779</v>
+        <v>0.04283172691555556</v>
       </c>
       <c r="R5">
-        <v>0.700802044</v>
+        <v>0.38548554224</v>
       </c>
       <c r="S5">
-        <v>0.06888979815472246</v>
+        <v>0.035571969653898</v>
       </c>
       <c r="T5">
-        <v>0.06888979815472246</v>
+        <v>0.03557196965389799</v>
       </c>
     </row>
   </sheetData>
